--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/123/incorrect_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Move away from sources of interference before attempting flight</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22-30</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,65 +496,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>32-35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Move away from sources of interference before attempting flight 2.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>22-31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>33-35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/123/incorrect_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>22-30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,15 +496,65 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Calibrate Compass Before Takeoff</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>32-35</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Move away from sources of interference before attempting flight 2.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22-31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Compass Before Takeoff</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33-35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>False</t>
         </is>
